--- a/Diana Pavlova.xlsx
+++ b/Diana Pavlova.xlsx
@@ -9,21 +9,14 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Предполагаемое распределение времени:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Моделирование системы</t>
-  </si>
-  <si>
-    <t>UML - диаграмма</t>
   </si>
   <si>
     <t>Последовательностей</t>
@@ -62,7 +55,55 @@
     <t>Интергационное тестирование</t>
   </si>
   <si>
-    <t>Дней</t>
+    <t>План</t>
+  </si>
+  <si>
+    <t>Факт</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Содержание работы</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Окончание</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Причины задержки</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Вариант 1 плана, файл на GitHub</t>
+  </si>
+  <si>
+    <t>файл на GitHub</t>
+  </si>
+  <si>
+    <t>UML - диаграммы</t>
+  </si>
+  <si>
+    <t>2;1</t>
+  </si>
+  <si>
+    <t>2;2</t>
+  </si>
+  <si>
+    <t>Написать требования к проекту</t>
+  </si>
+  <si>
+    <t>Приведение плана к общей форме, изменение сроков работ 27.09.2018</t>
   </si>
 </sst>
 </file>
@@ -86,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -94,17 +135,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,44 +545,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="16" t="s">
+        <v>13</v>
       </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>43367</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
+      <c r="F3" s="10">
+        <v>43367</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -485,19 +664,25 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="8">
+        <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="C4" s="9">
+        <f>C5</f>
+        <v>43368</v>
+      </c>
+      <c r="D4" s="9">
+        <f>D9</f>
+        <v>43442</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -530,20 +715,26 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
+    <row r="5" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>7</v>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="C5" s="9">
+        <f>D3+1</f>
+        <v>43368</v>
+      </c>
+      <c r="D5" s="9">
+        <f>C5+14</f>
+        <v>43382</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -577,19 +768,23 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>4</v>
+      <c r="C6" s="9">
+        <f>D5+1</f>
+        <v>43383</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="D6" s="9">
+        <f>C6+14</f>
+        <v>43397</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -623,20 +818,23 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>4</v>
+      <c r="C7" s="9">
+        <f>D6+1</f>
+        <v>43398</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="D7" s="9">
+        <f>C7+14</f>
+        <v>43412</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -669,19 +867,23 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>2</v>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
+      <c r="C8" s="9">
+        <f>D7+1</f>
+        <v>43413</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="D8" s="9">
+        <f>C8+14</f>
+        <v>43427</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -715,19 +917,23 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C9" s="9">
+        <f>D8+1</f>
+        <v>43428</v>
+      </c>
+      <c r="D9" s="9">
+        <f>C9+14</f>
+        <v>43442</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -761,17 +967,25 @@
       <c r="AN9" s="1"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <f>C11</f>
+        <v>43443</v>
+      </c>
+      <c r="D10" s="9">
+        <f>D13</f>
+        <v>43480</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -805,19 +1019,23 @@
       <c r="AN10" s="1"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3">
-        <v>2</v>
+      <c r="C11" s="9">
+        <f>D4+1</f>
+        <v>43443</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="D11" s="9">
+        <f>C11+7</f>
+        <v>43450</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -850,23 +1068,24 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="C12" s="9">
+        <f>D11+1</f>
+        <v>43451</v>
+      </c>
+      <c r="D12" s="9">
+        <f>C12+14</f>
+        <v>43465</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -899,22 +1118,24 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
+      <c r="C13" s="9">
+        <f>D12+1</f>
+        <v>43466</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3">
-        <v>5</v>
+      <c r="D13" s="9">
+        <f>C13+14</f>
+        <v>43480</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -946,23 +1167,27 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4</v>
+    <row r="14" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3">
-        <v>60</v>
+      <c r="C14" s="9">
+        <f>D10+1</f>
+        <v>43481</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="D14" s="9">
+        <f>C14+14</f>
+        <v>43495</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -995,22 +1220,26 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>5</v>
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3">
-        <v>30</v>
+      <c r="C15" s="9">
+        <f>D14+1</f>
+        <v>43496</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="D15" s="9">
+        <f>C15+7</f>
+        <v>43503</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1042,17 +1271,27 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+    <row r="16" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9">
+        <f>D15+1</f>
+        <v>43504</v>
+      </c>
+      <c r="D16" s="9">
+        <f>C16+60</f>
+        <v>43564</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1084,17 +1323,27 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+    <row r="17" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9">
+        <f>D16+1</f>
+        <v>43565</v>
+      </c>
+      <c r="D17" s="9">
+        <f>C17+30</f>
+        <v>43595</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1126,17 +1375,8 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+    <row r="18" spans="1:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1168,17 +1408,8 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1211,16 +1442,6 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1253,16 +1474,6 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1295,16 +1506,6 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1337,16 +1538,6 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1379,16 +1570,6 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1421,16 +1602,6 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1463,16 +1634,6 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1505,16 +1666,6 @@
       <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1547,16 +1698,6 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1589,17 +1730,6 @@
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1631,17 +1761,6 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1672,18 +1791,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+    <row r="31" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1715,17 +1823,6 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1757,17 +1854,6 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1799,17 +1885,6 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1841,17 +1916,16 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1883,16 +1957,6 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1925,16 +1989,6 @@
       <c r="AN36" s="1"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1967,16 +2021,6 @@
       <c r="AN37" s="1"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2009,16 +2053,6 @@
       <c r="AN38" s="1"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2051,16 +2085,6 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2093,16 +2117,6 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2135,16 +2149,6 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2177,16 +2181,6 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2219,16 +2213,6 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2261,16 +2245,6 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2303,16 +2277,6 @@
       <c r="AN45" s="1"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2345,16 +2309,6 @@
       <c r="AN46" s="1"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2387,16 +2341,6 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2429,16 +2373,6 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2471,16 +2405,6 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2513,16 +2437,6 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2555,16 +2469,6 @@
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2597,16 +2501,6 @@
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -2639,16 +2533,6 @@
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -14315,8 +14199,10 @@
       <c r="AN331" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F9:F10"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Diana Pavlova.xlsx
+++ b/Diana Pavlova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Моделирование системы</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Приведение плана к общей форме, изменение сроков работ 27.09.2018</t>
+  </si>
+  <si>
+    <t>Срок работы изменён на 14.09.2018</t>
+  </si>
+  <si>
+    <t>Работа не выполнена</t>
+  </si>
+  <si>
+    <t>Подготовка к лабораторным работам</t>
+  </si>
+  <si>
+    <t>Первичный вариант UML диаграммы</t>
   </si>
 </sst>
 </file>
@@ -545,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,10 +566,10 @@
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
     <col min="9" max="9" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -715,7 +727,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -727,14 +739,24 @@
         <v>43368</v>
       </c>
       <c r="D5" s="9">
-        <f>C5+14</f>
-        <v>43382</v>
+        <f>C5+19</f>
+        <v>43387</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43385</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -774,10 +796,10 @@
       </c>
       <c r="C6" s="9">
         <f>D5+1</f>
-        <v>43383</v>
+        <v>43388</v>
       </c>
       <c r="D6" s="9">
-        <f>C6+14</f>
+        <f>C6+9</f>
         <v>43397</v>
       </c>
       <c r="E6" s="7"/>

--- a/Diana Pavlova.xlsx
+++ b/Diana Pavlova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Моделирование системы</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Приведение плана к общей форме, изменение сроков работ 27.09.2018</t>
   </si>
   <si>
-    <t>Срок работы изменён на 14.09.2018</t>
+    <t>Первичный вариант UML диаграммы</t>
   </si>
   <si>
-    <t>Работа не выполнена</t>
+    <t>Получилось всё очень запутанно и непонятно, чего-то не хватает, нужно улучшить (применив паттерны?)</t>
   </si>
   <si>
-    <t>Подготовка к лабораторным работам</t>
-  </si>
-  <si>
-    <t>Первичный вариант UML диаграммы</t>
+    <t>Плохие навыки работы с Github</t>
   </si>
 </sst>
 </file>
@@ -557,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +724,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -743,19 +740,19 @@
         <v>43387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10">
-        <v>43385</v>
+        <v>43388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>

--- a/Diana Pavlova.xlsx
+++ b/Diana Pavlova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Моделирование системы</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Плохие навыки работы с Github</t>
+  </si>
+  <si>
+    <t>Первичный вариант диаграммы прецендентов</t>
+  </si>
+  <si>
+    <t>работа не выполнена</t>
+  </si>
+  <si>
+    <t>Выполнение лабораторных работ</t>
+  </si>
+  <si>
+    <t>Изменение сроков работ на 27.10.2018</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
   <dimension ref="A1:AN331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +575,7 @@
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" customWidth="1"/>
@@ -724,7 +736,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -786,7 +798,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -796,14 +808,24 @@
         <v>43388</v>
       </c>
       <c r="D6" s="9">
-        <f>C6+9</f>
-        <v>43397</v>
+        <f>C6+9+3</f>
+        <v>43400</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43398</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -843,10 +865,10 @@
       </c>
       <c r="C7" s="9">
         <f>D6+1</f>
-        <v>43398</v>
+        <v>43401</v>
       </c>
       <c r="D7" s="9">
-        <f>C7+14</f>
+        <f>C7+14-3</f>
         <v>43412</v>
       </c>
       <c r="E7" s="7"/>

--- a/Diana Pavlova.xlsx
+++ b/Diana Pavlova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Моделирование системы</t>
   </si>
@@ -117,15 +117,6 @@
   <si>
     <t>Первичный вариант диаграммы прецендентов</t>
   </si>
-  <si>
-    <t>работа не выполнена</t>
-  </si>
-  <si>
-    <t>Выполнение лабораторных работ</t>
-  </si>
-  <si>
-    <t>Изменение сроков работ на 27.10.2018</t>
-  </si>
 </sst>
 </file>
 
@@ -212,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -245,6 +236,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,19 +575,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -696,7 +688,7 @@
         <v>43368</v>
       </c>
       <c r="D4" s="9">
-        <f>D9</f>
+        <f>D10</f>
         <v>43442</v>
       </c>
       <c r="E4" s="7"/>
@@ -736,7 +728,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -744,28 +736,18 @@
         <v>25</v>
       </c>
       <c r="C5" s="9">
-        <f>D3+1</f>
+        <f>C6</f>
         <v>43368</v>
       </c>
       <c r="D5" s="9">
-        <f>C5+19</f>
-        <v>43387</v>
+        <f>D9</f>
+        <v>43427</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10">
-        <v>43388</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -798,33 +780,32 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9">
-        <f>D5+1</f>
+        <f>D3+1</f>
+        <v>43368</v>
+      </c>
+      <c r="D6" s="9">
+        <f>C6+19</f>
+        <v>43387</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10">
         <v>43388</v>
       </c>
-      <c r="D6" s="9">
-        <f>C6+9+3</f>
-        <v>43400</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="10">
-        <v>43398</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -858,23 +839,31 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="9">
         <f>D6+1</f>
+        <v>43388</v>
+      </c>
+      <c r="D7" s="9">
+        <f>C7+9+3</f>
+        <v>43400</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="10">
         <v>43401</v>
       </c>
-      <c r="D7" s="9">
-        <f>C7+14-3</f>
-        <v>43412</v>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -914,11 +903,11 @@
       </c>
       <c r="C8" s="9">
         <f>D7+1</f>
-        <v>43413</v>
+        <v>43401</v>
       </c>
       <c r="D8" s="9">
-        <f>C8+14</f>
-        <v>43427</v>
+        <f>C8+14-3</f>
+        <v>43412</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10"/>
@@ -964,11 +953,11 @@
       </c>
       <c r="C9" s="9">
         <f>D8+1</f>
-        <v>43428</v>
+        <v>43413</v>
       </c>
       <c r="D9" s="9">
         <f>C9+14</f>
-        <v>43442</v>
+        <v>43427</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10"/>
@@ -1015,12 +1004,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="9">
-        <f>C11</f>
-        <v>43443</v>
+        <f>D9+1</f>
+        <v>43428</v>
       </c>
       <c r="D10" s="9">
-        <f>D13</f>
-        <v>43480</v>
+        <f>C10+14</f>
+        <v>43442</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10"/>
@@ -1176,7 +1165,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1217,18 +1206,18 @@
       </c>
       <c r="C14" s="9">
         <f>D10+1</f>
-        <v>43481</v>
+        <v>43443</v>
       </c>
       <c r="D14" s="9">
         <f>C14+14</f>
-        <v>43495</v>
+        <v>43457</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1269,11 +1258,11 @@
       </c>
       <c r="C15" s="9">
         <f>D14+1</f>
-        <v>43496</v>
+        <v>43458</v>
       </c>
       <c r="D15" s="9">
         <f>C15+7</f>
-        <v>43503</v>
+        <v>43465</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
@@ -1321,11 +1310,11 @@
       </c>
       <c r="C16" s="9">
         <f>D15+1</f>
-        <v>43504</v>
+        <v>43466</v>
       </c>
       <c r="D16" s="9">
         <f>C16+60</f>
-        <v>43564</v>
+        <v>43526</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10"/>
@@ -1373,11 +1362,11 @@
       </c>
       <c r="C17" s="9">
         <f>D16+1</f>
-        <v>43565</v>
+        <v>43527</v>
       </c>
       <c r="D17" s="9">
         <f>C17+30</f>
-        <v>43595</v>
+        <v>43557</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10"/>
